--- a/biology/Médecine/Infrastructure_nationale_d'ingénierie_des_cellules_souches_pluripotentes_et_cellules_différenciées/Infrastructure_nationale_d'ingénierie_des_cellules_souches_pluripotentes_et_cellules_différenciées.xlsx
+++ b/biology/Médecine/Infrastructure_nationale_d'ingénierie_des_cellules_souches_pluripotentes_et_cellules_différenciées/Infrastructure_nationale_d'ingénierie_des_cellules_souches_pluripotentes_et_cellules_différenciées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Infrastructure_nationale_d%27ing%C3%A9nierie_des_cellules_souches_pluripotentes_et_cellules_diff%C3%A9renci%C3%A9es</t>
+          <t>Infrastructure_nationale_d'ingénierie_des_cellules_souches_pluripotentes_et_cellules_différenciées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Infrastructure nationale d'ingénierie des cellules souches pluripotentes et cellules différenciées (INGESTEM) est un consortium français financé dans le cadre des investissements d'avenir de 2012 à 2019, à hauteur de 14 millions d'euros. Il s'agit d'une infrastructure nationale en biologie et santé labellisée et le premier réseau français d’innovations thérapeutiques basées sur les cellules souches pluripotentes induites (iPS) humaines[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Infrastructure nationale d'ingénierie des cellules souches pluripotentes et cellules différenciées (INGESTEM) est un consortium français financé dans le cadre des investissements d'avenir de 2012 à 2019, à hauteur de 14 millions d'euros. Il s'agit d'une infrastructure nationale en biologie et santé labellisée et le premier réseau français d’innovations thérapeutiques basées sur les cellules souches pluripotentes induites (iPS) humaines,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Infrastructure_nationale_d%27ing%C3%A9nierie_des_cellules_souches_pluripotentes_et_cellules_diff%C3%A9renci%C3%A9es</t>
+          <t>Infrastructure_nationale_d'ingénierie_des_cellules_souches_pluripotentes_et_cellules_différenciées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le consortium est centré autour de la reprogrammation de cellules adultes en cellules souches pluripotentes induites (iPS)  et l’ingénierie de cellules différenciées en vue de la modélisation des maladies humaines et de nouvelles avancées thérapeutiques, notamment dans le domaine de la Médecine régénérative. Cela se traduit par le développement de projects de R&amp;D portant sur l'utilisation des cellules souches pluripotentes à des fins thérapeutiques dans les contextes médicales et industriels. 
-INGESTEM fournit aussi des prestations de services dans ces domaines et favorisent l'échange d'information, notamment à travers l'organisation d'un congrès international à Paris en novembre 2015[3].
+INGESTEM fournit aussi des prestations de services dans ces domaines et favorisent l'échange d'information, notamment à travers l'organisation d'un congrès international à Paris en novembre 2015.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Infrastructure_nationale_d%27ing%C3%A9nierie_des_cellules_souches_pluripotentes_et_cellules_diff%C3%A9renci%C3%A9es</t>
+          <t>Infrastructure_nationale_d'ingénierie_des_cellules_souches_pluripotentes_et_cellules_différenciées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Participants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cinq grands centres français participent au consortium [4]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cinq grands centres français participent au consortium :
 ESTeam Paris-Sud (Villejuif, Ile-de-France),
 I-Stem (Évry),
 IGBMC (Strasbourg),
